--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/FLORIDA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/FLORIDA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1571"/>
+  <dimension ref="A1:D1565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C37">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C40">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C49">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C56">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C84">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C92">
@@ -1720,7 +1720,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C103">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C105">
@@ -2336,7 +2336,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C150">
@@ -2362,7 +2362,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C152">
@@ -2492,7 +2492,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C162">
@@ -2809,7 +2809,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C186">
@@ -3009,7 +3009,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3066,7 +3066,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C205">
@@ -3253,7 +3253,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C219">
@@ -3422,7 +3422,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C232">
@@ -3474,7 +3474,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C236">
@@ -3552,7 +3552,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C242">
@@ -3565,7 +3565,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C243">
@@ -3578,7 +3578,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C244">
@@ -3663,18 +3663,18 @@
         <v>165</v>
       </c>
       <c r="D250">
-        <v>0.009079903147699757</v>
+        <v>0.009079903147699755</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C251">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C254">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C255">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C261">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C268">
@@ -3947,7 +3947,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C272">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C278">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C285">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C286">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C300">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C307">
@@ -4415,7 +4415,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C308">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C310">
@@ -4558,7 +4558,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C319">
@@ -4714,7 +4714,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C331">
@@ -4779,7 +4779,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C336">
@@ -4792,7 +4792,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C337">
@@ -4805,7 +4805,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C338">
@@ -4818,7 +4818,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C339">
@@ -4948,7 +4948,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -4992,7 +4992,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C352">
@@ -5005,7 +5005,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C353">
@@ -5109,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C361">
@@ -5148,7 +5148,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C364">
@@ -5252,7 +5252,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C372">
@@ -5304,7 +5304,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C376">
@@ -5330,7 +5330,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C378">
@@ -5356,7 +5356,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C380">
@@ -5382,7 +5382,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C382">
@@ -5408,7 +5408,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C384">
@@ -5473,7 +5473,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C389">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C395">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C397">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C398">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C402">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C404">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C405">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C408">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C409">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C410">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C415">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C416">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C421">
@@ -5977,7 +5977,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C427">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C428">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C430">
@@ -6029,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C431">
@@ -6042,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C432">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C435">
@@ -6237,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C447">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C449">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C451">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C453">
@@ -6367,7 +6367,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C457">
@@ -6380,7 +6380,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C458">
@@ -6491,7 +6491,7 @@
         <v>1799</v>
       </c>
       <c r="D466">
-        <v>0.09899845916795069</v>
+        <v>0.09899845916795068</v>
       </c>
     </row>
     <row r="467">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C470">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C476">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C477">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C483">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C488">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C491">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C494">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C501">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C502">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C503">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C504">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C506">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C507">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C510">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C515">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerero</t>
+          <t>Santiago Tulantepec De Lugo Guerero</t>
         </is>
       </c>
       <c r="C516">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C520">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C521">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C522">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C524">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C531">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C532">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C535">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C536">
@@ -7469,7 +7469,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C541">
@@ -7482,7 +7482,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C542">
@@ -7547,7 +7547,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C547">
@@ -7560,7 +7560,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C548">
@@ -7677,7 +7677,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C557">
@@ -7755,7 +7755,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C563">
@@ -7807,7 +7807,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C567">
@@ -7846,7 +7846,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C570">
@@ -7885,7 +7885,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C573">
@@ -7963,7 +7963,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C579">
@@ -8041,7 +8041,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C585">
@@ -8067,7 +8067,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C587">
@@ -8093,7 +8093,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C589">
@@ -8132,7 +8132,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C592">
@@ -8158,7 +8158,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C594">
@@ -8197,7 +8197,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C597">
@@ -8210,7 +8210,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C598">
@@ -8249,7 +8249,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C601">
@@ -8340,7 +8340,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C608">
@@ -8353,7 +8353,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C609">
@@ -8366,7 +8366,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C610">
@@ -8405,7 +8405,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C613">
@@ -8418,7 +8418,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C614">
@@ -8457,7 +8457,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C617">
@@ -8761,7 +8761,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C640">
@@ -9580,7 +9580,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C703">
@@ -9871,7 +9871,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C725">
@@ -9962,7 +9962,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C732">
@@ -10014,7 +10014,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C736">
@@ -10079,7 +10079,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C741">
@@ -10092,7 +10092,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C742">
@@ -10170,7 +10170,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C748">
@@ -10227,7 +10227,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C752">
@@ -10240,7 +10240,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C753">
@@ -10292,7 +10292,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C757">
@@ -10370,7 +10370,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C763">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C780">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C781">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C784">
@@ -10718,7 +10718,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C789">
@@ -10770,7 +10770,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C793">
@@ -10835,7 +10835,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C798">
@@ -10848,7 +10848,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C799">
@@ -10874,7 +10874,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C801">
@@ -10913,7 +10913,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C804">
@@ -10939,7 +10939,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C806">
@@ -10965,7 +10965,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C808">
@@ -10978,7 +10978,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C809">
@@ -10991,7 +10991,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C810">
@@ -11004,7 +11004,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C811">
@@ -11017,7 +11017,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C812">
@@ -11043,7 +11043,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C814">
@@ -11056,7 +11056,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C815">
@@ -11121,7 +11121,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C820">
@@ -11147,7 +11147,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C822">
@@ -11173,7 +11173,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C824">
@@ -11186,7 +11186,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C825">
@@ -11199,7 +11199,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C826">
@@ -11212,7 +11212,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C827">
@@ -11238,7 +11238,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C829">
@@ -11329,7 +11329,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C836">
@@ -11472,7 +11472,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C847">
@@ -11524,7 +11524,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C851">
@@ -11680,7 +11680,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C863">
@@ -11745,7 +11745,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C868">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C876">
@@ -12239,7 +12239,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C906">
@@ -12265,7 +12265,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C908">
@@ -12603,7 +12603,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C934">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C951">
@@ -12863,7 +12863,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C954">
@@ -13487,7 +13487,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1002">
@@ -13656,7 +13656,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1015">
@@ -13669,7 +13669,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1016">
@@ -13682,7 +13682,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1017">
@@ -13708,7 +13708,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1019">
@@ -13721,7 +13721,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1020">
@@ -13734,7 +13734,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1021">
@@ -13747,7 +13747,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1022">
@@ -13760,7 +13760,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1023">
@@ -13786,7 +13786,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1025">
@@ -13799,7 +13799,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1026">
@@ -13812,7 +13812,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1027">
@@ -13838,7 +13838,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1029">
@@ -13851,7 +13851,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1030">
@@ -13877,7 +13877,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1032">
@@ -13897,7 +13897,7 @@
         <v>1761</v>
       </c>
       <c r="D1033">
-        <v>0.09690732995817741</v>
+        <v>0.0969073299581774</v>
       </c>
     </row>
     <row r="1034">
@@ -14142,7 +14142,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerero</t>
+          <t>Ayotoxco De Guerero</t>
         </is>
       </c>
       <c r="C1052">
@@ -14168,7 +14168,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1054">
@@ -14285,7 +14285,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1063">
@@ -14376,7 +14376,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1070">
@@ -14558,7 +14558,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1084">
@@ -14571,7 +14571,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1085">
@@ -14636,7 +14636,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1090">
@@ -14740,7 +14740,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1098">
@@ -14831,7 +14831,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1105">
@@ -15026,7 +15026,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1120">
@@ -15078,7 +15078,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1124">
@@ -15091,7 +15091,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1125">
@@ -15247,7 +15247,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1137">
@@ -15260,7 +15260,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1138">
@@ -15312,7 +15312,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1142">
@@ -15325,7 +15325,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1143">
@@ -15338,7 +15338,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1144">
@@ -15390,7 +15390,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1148">
@@ -15585,7 +15585,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1163">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1173">
@@ -15746,7 +15746,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1175">
@@ -15824,7 +15824,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1181">
@@ -15837,7 +15837,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1182">
@@ -15876,7 +15876,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1185">
@@ -15915,7 +15915,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1188">
@@ -16068,7 +16068,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1199">
@@ -16146,7 +16146,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1205">
@@ -16276,7 +16276,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1215">
@@ -16354,7 +16354,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1221">
@@ -16432,7 +16432,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1227">
@@ -16458,7 +16458,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1229">
@@ -16536,7 +16536,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1235">
@@ -16575,7 +16575,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1238">
@@ -16588,7 +16588,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1239">
@@ -16601,7 +16601,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1240">
@@ -16614,7 +16614,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1241">
@@ -16627,7 +16627,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1242">
@@ -16640,7 +16640,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1243">
@@ -17214,7 +17214,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1286">
@@ -17661,7 +17661,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1320">
@@ -17796,7 +17796,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1330">
@@ -17848,7 +17848,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1334">
@@ -17874,7 +17874,7 @@
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1336">
@@ -17913,7 +17913,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1339">
@@ -18165,7 +18165,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1358">
@@ -18204,7 +18204,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1361">
@@ -18373,7 +18373,7 @@
     <row r="1374">
       <c r="B1374" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1374">
@@ -18399,7 +18399,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1376">
@@ -18477,7 +18477,7 @@
     <row r="1382">
       <c r="B1382" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1382">
@@ -18607,7 +18607,7 @@
     <row r="1392">
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1392">
@@ -18802,7 +18802,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1407">
@@ -18815,7 +18815,7 @@
     <row r="1408">
       <c r="B1408" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1408">
@@ -18854,7 +18854,7 @@
     <row r="1411">
       <c r="B1411" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1411">
@@ -18867,7 +18867,7 @@
     <row r="1412">
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1412">
@@ -18997,7 +18997,7 @@
     <row r="1422">
       <c r="B1422" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1422">
@@ -19049,7 +19049,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1426">
@@ -19075,7 +19075,7 @@
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1428">
@@ -19101,7 +19101,7 @@
     <row r="1430">
       <c r="B1430" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1430">
@@ -19153,7 +19153,7 @@
     <row r="1434">
       <c r="B1434" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1434">
@@ -19179,7 +19179,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1436">
@@ -19283,7 +19283,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1444">
@@ -19322,7 +19322,7 @@
     <row r="1447">
       <c r="B1447" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1447">
@@ -19361,7 +19361,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1450">
@@ -19439,7 +19439,7 @@
     <row r="1456">
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1456">
@@ -19478,7 +19478,7 @@
     <row r="1459">
       <c r="B1459" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1459">
@@ -19556,7 +19556,7 @@
     <row r="1465">
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1465">
@@ -19933,7 +19933,7 @@
     <row r="1494">
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1494">
@@ -20050,7 +20050,7 @@
     <row r="1503">
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1503">
@@ -20333,7 +20333,7 @@
     <row r="1524">
       <c r="B1524" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1524">
@@ -20359,7 +20359,7 @@
     <row r="1526">
       <c r="B1526" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1526">
@@ -20385,7 +20385,7 @@
     <row r="1528">
       <c r="B1528" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1528">
@@ -20580,7 +20580,7 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1543">
@@ -20593,7 +20593,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1544">
@@ -20723,7 +20723,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1554">
@@ -20775,7 +20775,7 @@
     <row r="1558">
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1558">
@@ -20874,41 +20874,6 @@
       </c>
       <c r="D1565">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
